--- a/biology/Zoologie/Eoneoprioniodus/Eoneoprioniodus.xlsx
+++ b/biology/Zoologie/Eoneoprioniodus/Eoneoprioniodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eoneoprioniodus est un genre fossile de conodontes de la famille fossile des Balognathidae dans l'ordre fossile des Prioniodontida.
 </t>
@@ -511,11 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eoneoprioniodus est décrit en 1965 par le paléontologue Michael C. Mound[1],[2].
-Fossiles
-Selon Paleobiology Database en 2024, les collections de fossiles référencées sont au nombre de quatre[2], mais sans précision sur les fossiles de l'Oklahoma de l'auteur taxonomique Michael C. Mound.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eoneoprioniodus est décrit en 1965 par le paléontologue Michael C. Mound,.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les différentes espèces ont été trouvées dans des terrains datant du Whiterockian (en) de l'Ordovicien moyen en Amérique du Nord[2].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2024, les collections de fossiles référencées sont au nombre de quatre, mais sans précision sur les fossiles de l'Oklahoma de l'auteur taxonomique Michael C. Mound.
 </t>
         </is>
       </c>
@@ -572,15 +590,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différentes espèces ont été trouvées dans des terrains datant du Whiterockian (en) de l'Ordovicien moyen en Amérique du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eoneoprioniodus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eoneoprioniodus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>†Eoneoprioniodus bilongatus (Harris, 1962)
 syn. †Oistodus bilongatus Harris, 1962
 syn. †Eoneoprioniodus cryptoden Mound, 1965
-syn. †Eoneoprioniodus cryptodens Mound, 1965[2]
+syn. †Eoneoprioniodus cryptodens Mound, 1965
 * †Eoneoprioniodus tripterolobus Mound, 1965
 syn. †Acodus tripterolobus Mound, 1965
 syn. †Acontiodus bialatus Mound, 1965
